--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allem\eclipse-workspace\BDDTestFramework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allem\git\git-test\BDDTestFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEDEEA8-466E-40CF-88F4-19A1D724EAE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC5C29-46AC-4C1E-8CA7-D7E20E2BA722}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{664ECF3D-908E-48B7-BE48-5315CFE7DADE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{664ECF3D-908E-48B7-BE48-5315CFE7DADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>sdfsdf</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>ds</t>
+  </si>
+  <si>
+    <t>qw</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>sddfsd</t>
   </si>
 </sst>
 </file>
@@ -390,57 +399,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9467769-E2CA-4608-9690-09D8B95EDA26}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
